--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3354.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3354.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.211896721508131</v>
+        <v>1.449548482894897</v>
       </c>
       <c r="B1">
-        <v>2.685999312748626</v>
+        <v>3.819766998291016</v>
       </c>
       <c r="C1">
-        <v>6.473721348115244</v>
+        <v>2.821645498275757</v>
       </c>
       <c r="D1">
-        <v>2.166164055241966</v>
+        <v>2.418932437896729</v>
       </c>
       <c r="E1">
-        <v>1.171448113668101</v>
+        <v>1.905972719192505</v>
       </c>
     </row>
   </sheetData>
